--- a/data/trans_dic/P16A04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02154545518666432</v>
+        <v>0.02217805212030903</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02298639149468891</v>
+        <v>0.02226644967743653</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00565569198966129</v>
+        <v>0.005955127273769553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02434654644188577</v>
+        <v>0.02478549976360838</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01810845000385382</v>
+        <v>0.0176515244071873</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01828193309569251</v>
+        <v>0.01890355869440329</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01447485663844043</v>
+        <v>0.0144454279847066</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03803878040991504</v>
+        <v>0.03748914291800694</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02153063499561875</v>
+        <v>0.02201169820593353</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0229816477090562</v>
+        <v>0.02319413523074756</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01320146994647681</v>
+        <v>0.01308702332401218</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03566054375766427</v>
+        <v>0.03584637138192821</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04372101400238399</v>
+        <v>0.04372886712870062</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04873691574727018</v>
+        <v>0.0481292511200705</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02124103065054607</v>
+        <v>0.02218039399963252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05564043054672705</v>
+        <v>0.05557876354792064</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03482402280803674</v>
+        <v>0.03490466500277784</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03596071563719408</v>
+        <v>0.03676805084429077</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03477913446080888</v>
+        <v>0.03404864990777719</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06219601120816657</v>
+        <v>0.0639956954736263</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03539774788429788</v>
+        <v>0.03490679530028008</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03762576273262298</v>
+        <v>0.03786606062062737</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02638280839192221</v>
+        <v>0.02593319631262069</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05565336001897507</v>
+        <v>0.05539126264022193</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008538971118915899</v>
+        <v>0.00818171557377814</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02020464534827068</v>
+        <v>0.02038103071928343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01628203370700134</v>
+        <v>0.01573979998622939</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01693089702098011</v>
+        <v>0.0174632779375726</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01600655529128544</v>
+        <v>0.01537221648721522</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02590164208369176</v>
+        <v>0.02552661105766434</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01484795435181088</v>
+        <v>0.0149792512252908</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02364123100938818</v>
+        <v>0.02363277937852207</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01322447806002759</v>
+        <v>0.01337270833694399</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02520892412105206</v>
+        <v>0.02556776181824725</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01679706483829799</v>
+        <v>0.01718333083598456</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02212588686503125</v>
+        <v>0.02169277693781709</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01923405650764052</v>
+        <v>0.01962327371748859</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.036999789795363</v>
+        <v>0.03689160520793724</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02968614489309685</v>
+        <v>0.02864489664723141</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03162966956853349</v>
+        <v>0.03207325202510645</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03088997218161173</v>
+        <v>0.0300533980270641</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04406971746661559</v>
+        <v>0.04343672879779747</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02819958648515533</v>
+        <v>0.02763728432224813</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03558374560783067</v>
+        <v>0.03671966789930497</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02235313886943094</v>
+        <v>0.02265425652673714</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03752297114890008</v>
+        <v>0.03754492545993705</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02636153503236554</v>
+        <v>0.02660515519485867</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0316120935869957</v>
+        <v>0.03118716485605866</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.02671150123776961</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.02750008318488748</v>
+        <v>0.02750008318488747</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01004634372777229</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002695613421124273</v>
+        <v>0.002700382082245064</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008453972699764676</v>
+        <v>0.008479501206319332</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01442271440629956</v>
+        <v>0.01534941453584142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005222434825958173</v>
+        <v>0.004957645304857852</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005098486638091832</v>
+        <v>0.004151902884783539</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.006061250335040452</v>
+        <v>0.006311355870582092</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01432853858402503</v>
+        <v>0.01341451811973229</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01771120056839918</v>
+        <v>0.01865267872300791</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.004933923591992222</v>
+        <v>0.004668789400296609</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.009432170418038115</v>
+        <v>0.009470327187283209</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01757994858841501</v>
+        <v>0.01810797501872288</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01318636571069727</v>
+        <v>0.01318170247372632</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02104324308420297</v>
+        <v>0.02153834398688214</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04087493560680969</v>
+        <v>0.04213905758765116</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0447644914418743</v>
+        <v>0.04390075161089418</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02018745919638351</v>
+        <v>0.01931222184229569</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02586292726609108</v>
+        <v>0.02595344375523148</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03282594435889599</v>
+        <v>0.0336089235869932</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04629611075307706</v>
+        <v>0.04473064134332156</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04203605313594577</v>
+        <v>0.04143292313546092</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01819167610930509</v>
+        <v>0.01684939992553428</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02946619439534512</v>
+        <v>0.02983784300046212</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0376815153653042</v>
+        <v>0.03963933344702717</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02682301533871654</v>
+        <v>0.02741436252942149</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02046839301795961</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02334272850576711</v>
+        <v>0.02334272850576712</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02213235544410175</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01378977435704009</v>
+        <v>0.01378810503931462</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02253165835837096</v>
+        <v>0.02256201329561353</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01609961881934563</v>
+        <v>0.01607950527960932</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01801620199896038</v>
+        <v>0.01808885216553392</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01764408954218095</v>
+        <v>0.01785189251954013</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02344887973191984</v>
+        <v>0.02303426010207155</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0178534626560092</v>
+        <v>0.01714012288007302</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02813424758387018</v>
+        <v>0.02796356007797128</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01673836752900124</v>
+        <v>0.01668753418423446</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02413840717040793</v>
+        <v>0.02439368320655311</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01795852277147793</v>
+        <v>0.01784070516721827</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02463909278795961</v>
+        <v>0.02485797096231825</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02302874057988636</v>
+        <v>0.02309209636156779</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0347467962758835</v>
+        <v>0.0351099644564157</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02649761060635367</v>
+        <v>0.02617443200091404</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02943704740981933</v>
+        <v>0.02926342242540108</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02831724624947891</v>
+        <v>0.02800115905029992</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03503062479348226</v>
+        <v>0.0347814608459933</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02812278210078361</v>
+        <v>0.02754994129156521</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03850420351922253</v>
+        <v>0.03858164708984622</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02381799864549361</v>
+        <v>0.02371886825728065</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03291947226354199</v>
+        <v>0.03306553337723677</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02485713349680998</v>
+        <v>0.02494415163966593</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03243651714356023</v>
+        <v>0.03241182822408588</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22229</v>
+        <v>22882</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22289</v>
+        <v>21591</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4266</v>
+        <v>4492</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14049</v>
+        <v>14302</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23815</v>
+        <v>23214</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>24381</v>
+        <v>25210</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>14398</v>
+        <v>14368</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>31184</v>
+        <v>30733</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>50529</v>
+        <v>51658</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>52933</v>
+        <v>53423</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>23089</v>
+        <v>22889</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>49812</v>
+        <v>50071</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45108</v>
+        <v>45116</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>47258</v>
+        <v>46668</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16023</v>
+        <v>16732</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>32107</v>
+        <v>32072</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>45798</v>
+        <v>45904</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>47958</v>
+        <v>49035</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>34593</v>
+        <v>33867</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>50987</v>
+        <v>52463</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>83073</v>
+        <v>81920</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>86663</v>
+        <v>87216</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>46144</v>
+        <v>45357</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>77738</v>
+        <v>77372</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14451</v>
+        <v>13847</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39583</v>
+        <v>39929</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>33808</v>
+        <v>32682</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>37765</v>
+        <v>38953</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>25413</v>
+        <v>24406</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>45350</v>
+        <v>44693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>29522</v>
+        <v>29783</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>51318</v>
+        <v>51300</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>43377</v>
+        <v>43863</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>93525</v>
+        <v>94856</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>68275</v>
+        <v>69845</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>97382</v>
+        <v>95476</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>32552</v>
+        <v>33210</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>72487</v>
+        <v>72275</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>61640</v>
+        <v>59478</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>70552</v>
+        <v>71542</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>49043</v>
+        <v>47715</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>77160</v>
+        <v>76051</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>56069</v>
+        <v>54951</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>77242</v>
+        <v>79708</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>73320</v>
+        <v>74307</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>139209</v>
+        <v>139291</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>107151</v>
+        <v>108142</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>139133</v>
+        <v>137263</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4061</v>
+        <v>4073</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7888</v>
+        <v>8394</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3716</v>
+        <v>3528</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2429</v>
+        <v>1978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2774</v>
+        <v>2888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7868</v>
+        <v>7366</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13016</v>
+        <v>13707</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5071</v>
+        <v>4799</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8847</v>
+        <v>8883</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>19268</v>
+        <v>19847</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>19074</v>
+        <v>19067</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11603</v>
+        <v>11876</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19634</v>
+        <v>20241</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24481</v>
+        <v>24009</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14365</v>
+        <v>13742</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12321</v>
+        <v>12365</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15023</v>
+        <v>15381</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25423</v>
+        <v>24563</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30891</v>
+        <v>30448</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18698</v>
+        <v>17318</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>27639</v>
+        <v>27987</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>41300</v>
+        <v>43446</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>38799</v>
+        <v>39654</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>45169</v>
+        <v>45163</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>76813</v>
+        <v>76916</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>54378</v>
+        <v>54310</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>63403</v>
+        <v>63658</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>59623</v>
+        <v>60325</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>83059</v>
+        <v>81591</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>63060</v>
+        <v>60541</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>104810</v>
+        <v>104175</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>111389</v>
+        <v>111051</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>167792</v>
+        <v>169566</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>124088</v>
+        <v>123274</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>178500</v>
+        <v>180085</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>75431</v>
+        <v>75639</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>118456</v>
+        <v>119694</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>89499</v>
+        <v>88407</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>103595</v>
+        <v>102984</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>95690</v>
+        <v>94621</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>124083</v>
+        <v>123201</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>99332</v>
+        <v>97309</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>143442</v>
+        <v>143731</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>158502</v>
+        <v>157842</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>228831</v>
+        <v>229847</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>171756</v>
+        <v>172357</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>234989</v>
+        <v>234810</v>
       </c>
     </row>
     <row r="20">
